--- a/data/findata_tietoluvat.xlsx
+++ b/data/findata_tietoluvat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarbruck/OneDrive - University of Helsinki/Tutkimus/Projekteja/Findata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarbruck/OneDrive - University of Helsinki/Tutkimus/Projekteja/Findata/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D01D61-EDD0-B445-A501-99EEAAFB3204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7D0EB9-2BE7-F043-9657-D9B8A0CA5CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16000" xr2:uid="{86D67D67-3C41-7D46-9980-A7D7843AD978}"/>
+    <workbookView xWindow="9300" yWindow="460" windowWidth="19500" windowHeight="16060" xr2:uid="{86D67D67-3C41-7D46-9980-A7D7843AD978}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="G1:H1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,17 +447,17 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>4.29</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <f>SUM(B2:D2)</f>
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
